--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1594.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1594.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.340156579037352</v>
+        <v>0.5244542360305786</v>
       </c>
       <c r="B1">
-        <v>3.332289409158038</v>
+        <v>2.37044358253479</v>
       </c>
       <c r="C1">
-        <v>5.308597140486217</v>
+        <v>6.561444282531738</v>
       </c>
       <c r="D1">
-        <v>1.649040632583104</v>
+        <v>1.988759636878967</v>
       </c>
       <c r="E1">
-        <v>0.9055731778048433</v>
+        <v>1.632404088973999</v>
       </c>
     </row>
   </sheetData>
